--- a/e61 Projects/COVID Aust NZ/initial_RDD/newsletter/Benefit_comparison.xlsx
+++ b/e61 Projects/COVID Aust NZ/initial_RDD/newsletter/Benefit_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\COVID Aust NZ\initial_RDD\newsletter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778389A-7D25-4B11-B4BD-C70FDA99652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F22669-7154-4667-ADB3-49835CA75961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7D649338-9843-41D2-A5A2-D146955B3C31}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{7D649338-9843-41D2-A5A2-D146955B3C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>2016</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Apr_year</t>
+  </si>
+  <si>
+    <t>Aus xCRA x CS</t>
+  </si>
+  <si>
+    <t>AUS_PPP_xh_xCS</t>
   </si>
 </sst>
 </file>
@@ -2463,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEE3BFE-FE18-420D-95F6-0946F1740FC7}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2478,7 +2484,7 @@
     <col min="6" max="7" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -2515,8 +2521,11 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2563,8 +2572,12 @@
         <f>B2*2</f>
         <v>420.26</v>
       </c>
+      <c r="P2">
+        <f>E2</f>
+        <v>570.79999999999995</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2611,8 +2624,12 @@
         <f t="shared" ref="O3:O10" si="5">B3*2</f>
         <v>424.9</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="6">E3</f>
+        <v>579.29999999999995</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2659,8 +2676,12 @@
         <f t="shared" si="5"/>
         <v>430.68</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>590.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2728,12 @@
         <f t="shared" si="5"/>
         <v>437.96</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>601.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2754,8 +2779,12 @@
         <f t="shared" si="5"/>
         <v>501.48</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>612</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2801,8 +2830,12 @@
         <f t="shared" si="5"/>
         <v>517</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>667.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2848,8 +2881,12 @@
         <f t="shared" si="5"/>
         <v>630</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>691</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2897,8 +2934,12 @@
         <f t="shared" si="5"/>
         <v>675.48</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>745.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2946,8 +2987,12 @@
         <f t="shared" si="5"/>
         <v>706.92</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>816.9</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -2960,15 +3005,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34120510-8B0E-4626-8185-57B0E6AAA023}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2984,158 +3032,233 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <f>Sheet1!H2</f>
         <v>492.89108734996609</v>
       </c>
       <c r="C2">
+        <f>Sheet1!I2</f>
         <v>483.53418528765178</v>
       </c>
       <c r="D2">
-        <v>420.26</v>
+        <f>Sheet1!O2/Sheet1!K2</f>
+        <v>291.64307207177194</v>
       </c>
       <c r="E2">
-        <v>570.79999999999995</v>
+        <f>Sheet1!N2/Sheet1!L2</f>
+        <v>393.61282510295439</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!P2/Sheet1!L2</f>
+        <v>393.61282510295439</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <f>Sheet1!H3</f>
         <v>499.59502683165618</v>
       </c>
       <c r="C3">
+        <f>Sheet1!I3</f>
         <v>481.53941009222683</v>
       </c>
       <c r="D3">
-        <v>424.9</v>
+        <f>Sheet1!O3/Sheet1!K3</f>
+        <v>296.93373464928061</v>
       </c>
       <c r="E3">
-        <v>579.29999999999995</v>
+        <f>Sheet1!N3/Sheet1!L3</f>
+        <v>392.06715427466901</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!P3/Sheet1!L3</f>
+        <v>392.06715427466901</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <f>Sheet1!H4</f>
         <v>517.44826741765644</v>
       </c>
       <c r="C4">
+        <f>Sheet1!I4</f>
         <v>493.19812323560279</v>
       </c>
       <c r="D4">
-        <v>430.68</v>
+        <f>Sheet1!O4/Sheet1!K4</f>
+        <v>292.96763397412354</v>
       </c>
       <c r="E4">
-        <v>590.4</v>
+        <f>Sheet1!N4/Sheet1!L4</f>
+        <v>401.52257578364572</v>
+      </c>
+      <c r="F4">
+        <f>Sheet1!P4/Sheet1!L4</f>
+        <v>401.52257578364572</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <f>Sheet1!H5</f>
         <v>534.54503184815349</v>
       </c>
       <c r="C5">
+        <f>Sheet1!I5</f>
         <v>495.8016190475538</v>
       </c>
       <c r="D5">
-        <v>437.96</v>
+        <f>Sheet1!O5/Sheet1!K5</f>
+        <v>304.8457499716356</v>
       </c>
       <c r="E5">
-        <v>601.1</v>
+        <f>Sheet1!N5/Sheet1!L5</f>
+        <v>411.92308667516875</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!P5/Sheet1!L5</f>
+        <v>411.92308667516875</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <f>Sheet1!H6</f>
         <v>584.33700224744996</v>
       </c>
       <c r="C6">
+        <f>Sheet1!I6</f>
         <v>898.9301013025613</v>
       </c>
       <c r="D6">
-        <v>501.48</v>
+        <f>Sheet1!O6/Sheet1!K6</f>
+        <v>352.42377433859048</v>
       </c>
       <c r="E6">
-        <v>1162</v>
+        <f>Sheet1!N6/Sheet1!L6</f>
+        <v>811.87375852135574</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!P6/Sheet1!L6</f>
+        <v>427.59616197510303</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <f>Sheet1!H7</f>
         <v>581.83346923186309</v>
       </c>
       <c r="C7">
+        <f>Sheet1!I7</f>
         <v>560.69627267381361</v>
       </c>
       <c r="D7">
-        <v>517</v>
+        <f>Sheet1!O7/Sheet1!K7</f>
+        <v>355.14510459607226</v>
       </c>
       <c r="E7">
-        <v>667.5</v>
+        <f>Sheet1!N7/Sheet1!L7</f>
+        <v>471.7821278328131</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!P7/Sheet1!L7</f>
+        <v>471.7821278328131</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <f>Sheet1!H8</f>
         <v>660.58242726884259</v>
       </c>
       <c r="C8">
+        <f>Sheet1!I8</f>
         <v>598.97054672473541</v>
       </c>
       <c r="D8">
-        <v>630</v>
+        <f>Sheet1!O8/Sheet1!K8</f>
+        <v>433.50721789517797</v>
       </c>
       <c r="E8">
-        <v>691</v>
+        <f>Sheet1!N8/Sheet1!L8</f>
+        <v>504.00468556599145</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!P8/Sheet1!L8</f>
+        <v>504.00468556599145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <f>Sheet1!H9</f>
         <v>691.87751976070399</v>
       </c>
       <c r="C9">
+        <f>Sheet1!I9</f>
         <v>645.94290815809268</v>
       </c>
       <c r="D9">
-        <v>675.48</v>
+        <f>Sheet1!O9/Sheet1!K9</f>
+        <v>464.80231038703937</v>
       </c>
       <c r="E9">
-        <v>745.2</v>
+        <f>Sheet1!N9/Sheet1!L9</f>
+        <v>543.53732515741945</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!P9/Sheet1!L9</f>
+        <v>543.53732515741945</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <f>Sheet1!H10</f>
         <v>713.51159425375863</v>
       </c>
       <c r="C10">
+        <f>Sheet1!I10</f>
         <v>702.32432956800744</v>
       </c>
       <c r="D10">
-        <v>706.92</v>
+        <f>Sheet1!O10/Sheet1!K10</f>
+        <v>486.43638488009395</v>
       </c>
       <c r="E10">
-        <v>816.9</v>
+        <f>Sheet1!N10/Sheet1!L10</f>
+        <v>595.83419339921625</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!P10/Sheet1!L10</f>
+        <v>595.83419339921625</v>
       </c>
     </row>
   </sheetData>
